--- a/biology/Botanique/Henry_McLaren_(2e_baron_Aberconway)/Henry_McLaren_(2e_baron_Aberconway).xlsx
+++ b/biology/Botanique/Henry_McLaren_(2e_baron_Aberconway)/Henry_McLaren_(2e_baron_Aberconway).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Henry Duncan McLaren, 2e baron Aberconway (16 avril 1879 - 23 mai 1953) est un homme politique, horticulteur et industriel britannique. Il est le fils de Charles McLaren (1er baron Aberconway) et Laura Pochin.
@@ -512,11 +524,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Richmond upon Thames, il fait ses études au Collège d'Eton et obtient une maîtrise ès arts du Balliol College, Oxford. En 1903, il devient avocat au Lincoln's Inn.
 En 1906, il est élu député du West Staffordshire sous l'étiquette libérale et est sous-secrétaire privé du président de la Chambre de commerce, David Lloyd George, jusqu'en 1908. En 1910, il se présente pour l'ancien siège de son père à Bosworth et le remplace. Il quitte la politique en 1922 et succède à son père à la baronnie en 1934.
-McLaren est un industriel et préside des entreprises des deux côtés de la famille, dont John Brown &amp; Company et la Tredegar Iron and Coal Company. En 1915, il est le président fondateur de la Design and Industries Association [1]. Vers la fin de sa carrière politique, en 1920, il fait construire Aberconway House comme résidence à Mayfair. Il hérite également du domaine familial (à l'origine celui de son grand-père maternel) à Conwy, dans le nord du Pays de Galles, qu'il développe largement et ajoute le jardin Bodnant. Il est un horticulteur passionné et s'intéresse à l'élevage de rhododendrons et de magnolias. Il parraine plusieurs collectionneurs botaniques, dont George Forrest, et Rhododendron aberconwayi est nommé en son honneur. Il est mort à Bodnant, à l'âge de 74 ans[2] et est enterré au mausolée appelé "Le poème" dans le jardin de Bodnant, le lieu de sépulture traditionnel des lords Aberconway.
+McLaren est un industriel et préside des entreprises des deux côtés de la famille, dont John Brown &amp; Company et la Tredegar Iron and Coal Company. En 1915, il est le président fondateur de la Design and Industries Association . Vers la fin de sa carrière politique, en 1920, il fait construire Aberconway House comme résidence à Mayfair. Il hérite également du domaine familial (à l'origine celui de son grand-père maternel) à Conwy, dans le nord du Pays de Galles, qu'il développe largement et ajoute le jardin Bodnant. Il est un horticulteur passionné et s'intéresse à l'élevage de rhododendrons et de magnolias. Il parraine plusieurs collectionneurs botaniques, dont George Forrest, et Rhododendron aberconwayi est nommé en son honneur. Il est mort à Bodnant, à l'âge de 74 ans et est enterré au mausolée appelé "Le poème" dans le jardin de Bodnant, le lieu de sépulture traditionnel des lords Aberconway.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il épouse Christabel Mary Melville Macnaghten (1890-1974), la fille de Melville Macnaghten, et a cinq enfants :
 Elizabeth Mary McLaren (31 mai 1911 - 4 décembre 1991), mariée et a des enfants, dont Kenneth Carlisle
